--- a/Index Combination/Global Safety and Stability Index(Pivoted).xlsx
+++ b/Index Combination/Global Safety and Stability Index(Pivoted).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C640"/>
+  <dimension ref="A1:C649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>2013</v>
       </c>
       <c r="C2" t="n">
-        <v>2.527123619929475</v>
+        <v>0.4596488084497843</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645859296723312</v>
+        <v>0.5891042011786592</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2013</v>
       </c>
       <c r="C4" t="n">
-        <v>2.937682560068962</v>
+        <v>0.5083372427637534</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>2013</v>
       </c>
       <c r="C5" t="n">
-        <v>3.612684554181069</v>
+        <v>0.5844974164734543</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>3.140651921346168</v>
+        <v>0.6465742503110612</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>2013</v>
       </c>
       <c r="C7" t="n">
-        <v>3.260905440709295</v>
+        <v>0.697238160059186</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2013</v>
       </c>
       <c r="C8" t="n">
-        <v>3.573312027186218</v>
+        <v>0.547313672120042</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>3.375804910350468</v>
+        <v>0.5708429692864134</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>3.715629480305214</v>
+        <v>0.6164123289901791</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2013</v>
       </c>
       <c r="C11" t="n">
-        <v>3.626699324984361</v>
+        <v>0.7207568419338444</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>2013</v>
       </c>
       <c r="C12" t="n">
-        <v>3.047919115020117</v>
+        <v>0.5947786239477357</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>2013</v>
       </c>
       <c r="C13" t="n">
-        <v>2.889506496097311</v>
+        <v>0.6106196493679987</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2013</v>
       </c>
       <c r="C14" t="n">
-        <v>3.5145122174259</v>
+        <v>0.6705149951013283</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>2013</v>
       </c>
       <c r="C15" t="n">
-        <v>3.103609376437169</v>
+        <v>0.5251081113467962</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2013</v>
       </c>
       <c r="C16" t="n">
-        <v>3.137407315640869</v>
+        <v>0.4152642519242805</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>2013</v>
       </c>
       <c r="C17" t="n">
-        <v>3.389459412251351</v>
+        <v>0.6670128350800766</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2013</v>
       </c>
       <c r="C18" t="n">
-        <v>4.30092836537547</v>
+        <v>0.7497488983797709</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2013</v>
       </c>
       <c r="C19" t="n">
-        <v>3.43264587647017</v>
+        <v>0.7387743127450284</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.474701500119556</v>
+        <v>0.4016588831134511</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2013</v>
       </c>
       <c r="C21" t="n">
-        <v>2.490475062902039</v>
+        <v>0.416278217917726</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2013</v>
       </c>
       <c r="C22" t="n">
-        <v>3.460401243219128</v>
+        <v>0.5441749720067297</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>2013</v>
       </c>
       <c r="C23" t="n">
-        <v>4.259203847138525</v>
+        <v>0.7844845371499091</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>2013</v>
       </c>
       <c r="C24" t="n">
-        <v>3.796935315529835</v>
+        <v>0.7675762880614657</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>3.475914100108279</v>
+        <v>0.6360428683725936</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>2013</v>
       </c>
       <c r="C26" t="n">
-        <v>4.153943963853136</v>
+        <v>0.6385516272535154</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>2013</v>
       </c>
       <c r="C27" t="n">
-        <v>3.26080517834106</v>
+        <v>0.6533181107971126</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2013</v>
       </c>
       <c r="C28" t="n">
-        <v>3.700460598155114</v>
+        <v>0.6249522505871877</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>2013</v>
       </c>
       <c r="C29" t="n">
-        <v>2.196162183801849</v>
+        <v>0.3476724835021159</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>2013</v>
       </c>
       <c r="C30" t="n">
-        <v>1.549064366680541</v>
+        <v>0.229308182124307</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2013</v>
       </c>
       <c r="C31" t="n">
-        <v>3.012274928040911</v>
+        <v>0.6157702264314634</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>2013</v>
       </c>
       <c r="C32" t="n">
-        <v>2.904165161420058</v>
+        <v>0.4280415464569309</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>2013</v>
       </c>
       <c r="C33" t="n">
-        <v>2.566433064866556</v>
+        <v>0.5195115798020538</v>
       </c>
     </row>
     <row r="34">
@@ -876,7885 +876,8002 @@
         <v>2013</v>
       </c>
       <c r="C34" t="n">
-        <v>2.446704080498751</v>
+        <v>0.5440134913725552</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2013</v>
       </c>
       <c r="C35" t="n">
-        <v>3.322858279599239</v>
+        <v>0.5806142734456153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2013</v>
       </c>
       <c r="C36" t="n">
-        <v>3.279326565162199</v>
+        <v>0.6275046035081926</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2013</v>
       </c>
       <c r="C37" t="n">
-        <v>2.95051811795518</v>
+        <v>0.6724537081025725</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2013</v>
       </c>
       <c r="C38" t="n">
-        <v>2.716140231774122</v>
+        <v>0.5091852277388867</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2013</v>
       </c>
       <c r="C39" t="n">
-        <v>3.309012135136276</v>
+        <v>0.3943059766478361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2013</v>
       </c>
       <c r="C40" t="n">
-        <v>3.626362373269322</v>
+        <v>0.6150511831941756</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2013</v>
       </c>
       <c r="C41" t="n">
-        <v>2.05953166919223</v>
+        <v>0.6640690655319743</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2013</v>
       </c>
       <c r="C42" t="n">
-        <v>2.444550976068216</v>
+        <v>0.4438824687539531</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2013</v>
       </c>
       <c r="C43" t="n">
-        <v>3.44130690256101</v>
+        <v>0.3543906671974974</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2013</v>
       </c>
       <c r="C44" t="n">
-        <v>3.702024381223867</v>
+        <v>0.5998378134041453</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2013</v>
       </c>
       <c r="C45" t="n">
-        <v>2.898628941279076</v>
+        <v>0.6759415289495967</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2013</v>
       </c>
       <c r="C46" t="n">
-        <v>3.190364745465692</v>
+        <v>0.5092070187134561</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>3.759268199025958</v>
+        <v>0.682160956931978</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2013</v>
       </c>
       <c r="C48" t="n">
-        <v>2.66916733908511</v>
+        <v>0.7227446629440974</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2013</v>
       </c>
       <c r="C49" t="n">
-        <v>2.621475476208637</v>
+        <v>0.4842451006942255</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2013</v>
       </c>
       <c r="C50" t="n">
-        <v>2.624127190401132</v>
+        <v>0.4344222639281504</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2013</v>
       </c>
       <c r="C51" t="n">
-        <v>2.301442557714518</v>
+        <v>0.4562624822961489</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2013</v>
       </c>
       <c r="C52" t="n">
-        <v>3.561508042572649</v>
+        <v>0.353597740434434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2013</v>
       </c>
       <c r="C53" t="n">
-        <v>3.498593966735475</v>
+        <v>0.7067556754223185</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2013</v>
       </c>
       <c r="C54" t="n">
-        <v>3.472307894772482</v>
+        <v>0.6968233995472239</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2013</v>
       </c>
       <c r="C55" t="n">
-        <v>3.449054982727336</v>
+        <v>0.6815587867417336</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2013</v>
       </c>
       <c r="C56" t="n">
-        <v>3.533380943065791</v>
+        <v>0.408175830454556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>3.538691156354647</v>
+        <v>0.5875133152665453</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2013</v>
       </c>
       <c r="C58" t="n">
-        <v>3.971591632409544</v>
+        <v>0.604815985937359</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2013</v>
       </c>
       <c r="C59" t="n">
-        <v>3.111159913387235</v>
+        <v>0.7843263309134888</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2013</v>
       </c>
       <c r="C60" t="n">
-        <v>3.667165273879403</v>
+        <v>0.6121440659925045</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2013</v>
       </c>
       <c r="C61" t="n">
-        <v>2.409617934943824</v>
+        <v>0.7426275271997862</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2013</v>
       </c>
       <c r="C62" t="n">
-        <v>2.991875006876008</v>
+        <v>0.343956798417588</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2013</v>
       </c>
       <c r="C63" t="n">
-        <v>3.865987927390227</v>
+        <v>0.5941079263443043</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.427171184507872</v>
+        <v>0.7678325202724718</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2013</v>
       </c>
       <c r="C65" t="n">
-        <v>4.080864942615663</v>
+        <v>0.7065023363222398</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2013</v>
       </c>
       <c r="C66" t="n">
-        <v>3.344443758175236</v>
+        <v>0.6538574941253001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2013</v>
       </c>
       <c r="C67" t="n">
-        <v>3.794316532901944</v>
+        <v>0.5787133251266049</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2013</v>
       </c>
       <c r="C68" t="n">
-        <v>1.918450478121575</v>
+        <v>0.6341385330154781</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>2013</v>
       </c>
       <c r="C69" t="n">
-        <v>3.361733109278712</v>
+        <v>0.2956686971006904</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>2013</v>
       </c>
       <c r="C70" t="n">
-        <v>3.667741900327494</v>
+        <v>0.5454391928119012</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2013</v>
       </c>
       <c r="C71" t="n">
-        <v>3.662995157462976</v>
+        <v>0.6960532755849272</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2013</v>
       </c>
       <c r="C72" t="n">
-        <v>3.223933569079324</v>
+        <v>0.577018285328869</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C73" t="n">
-        <v>3.192891908556973</v>
+        <v>0.6233764950494687</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2014</v>
       </c>
       <c r="C74" t="n">
-        <v>3.694968125707565</v>
+        <v>0.5776496739210497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2014</v>
       </c>
       <c r="C75" t="n">
-        <v>3.012022747116337</v>
+        <v>0.6131013679178594</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2014</v>
       </c>
       <c r="C76" t="n">
-        <v>3.51326358757392</v>
+        <v>0.5452894080913049</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2014</v>
       </c>
       <c r="C77" t="n">
-        <v>3.193196707701626</v>
+        <v>0.5979842857272144</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2014</v>
       </c>
       <c r="C78" t="n">
-        <v>3.70235401897605</v>
+        <v>0.6666575289932157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2014</v>
       </c>
       <c r="C79" t="n">
-        <v>3.691595245179264</v>
+        <v>0.7700924046623342</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2014</v>
       </c>
       <c r="C80" t="n">
-        <v>3.608746009843574</v>
+        <v>0.584250195941602</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2014</v>
       </c>
       <c r="C81" t="n">
-        <v>3.696639214456228</v>
+        <v>0.617476754878496</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2014</v>
       </c>
       <c r="C82" t="n">
-        <v>3.699640566290279</v>
+        <v>0.6220710892532705</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2014</v>
       </c>
       <c r="C83" t="n">
-        <v>3.097664870940797</v>
+        <v>0.738965315922272</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2014</v>
       </c>
       <c r="C84" t="n">
-        <v>2.887144130923367</v>
+        <v>0.6120511662883605</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2014</v>
       </c>
       <c r="C85" t="n">
-        <v>3.43253125401997</v>
+        <v>0.6219541513365803</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2014</v>
       </c>
       <c r="C86" t="n">
-        <v>3.109797712948895</v>
+        <v>0.66922555665159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2014</v>
       </c>
       <c r="C87" t="n">
-        <v>3.037027126680575</v>
+        <v>0.5356820319127504</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2014</v>
       </c>
       <c r="C88" t="n">
-        <v>3.626007596747433</v>
+        <v>0.4107383316110433</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2014</v>
       </c>
       <c r="C89" t="n">
-        <v>3.906190246724783</v>
+        <v>0.7122078100918522</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2014</v>
       </c>
       <c r="C90" t="n">
-        <v>3.389809241782884</v>
+        <v>0.674037842756789</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2014</v>
       </c>
       <c r="C91" t="n">
-        <v>2.404298014902307</v>
+        <v>0.7316348736304805</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>2014</v>
       </c>
       <c r="C92" t="n">
-        <v>2.496054669861631</v>
+        <v>0.3993530093003504</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2014</v>
       </c>
       <c r="C93" t="n">
-        <v>3.571554661062005</v>
+        <v>0.4367998410232916</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4.032476503692122</v>
+        <v>0.5463497713903613</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>2014</v>
       </c>
       <c r="C95" t="n">
-        <v>3.950352718074989</v>
+        <v>0.7700685106698867</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>2014</v>
       </c>
       <c r="C96" t="n">
-        <v>3.546507207797561</v>
+        <v>0.7981330876409917</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2014</v>
       </c>
       <c r="C97" t="n">
-        <v>3.518273340647418</v>
+        <v>0.6500484064802343</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2014</v>
       </c>
       <c r="C98" t="n">
-        <v>3.397993699507116</v>
+        <v>0.5817776631140381</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2014</v>
       </c>
       <c r="C99" t="n">
-        <v>3.938167412462619</v>
+        <v>0.6799996315811111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2014</v>
       </c>
       <c r="C100" t="n">
-        <v>2.131239528105257</v>
+        <v>0.6773223806047104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2014</v>
       </c>
       <c r="C101" t="n">
-        <v>1.518240588648748</v>
+        <v>0.3536728456862545</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2014</v>
       </c>
       <c r="C102" t="n">
-        <v>3.160789109926185</v>
+        <v>0.2407701594578179</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2014</v>
       </c>
       <c r="C103" t="n">
-        <v>3.011706836383759</v>
+        <v>0.6486454924178271</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2014</v>
       </c>
       <c r="C104" t="n">
-        <v>2.778747892434656</v>
+        <v>0.4619034229692086</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2014</v>
       </c>
       <c r="C105" t="n">
-        <v>2.327127887466094</v>
+        <v>0.5420271708931652</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2014</v>
       </c>
       <c r="C106" t="n">
-        <v>3.482396230887551</v>
+        <v>0.5241872995810906</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2014</v>
       </c>
       <c r="C107" t="n">
-        <v>3.359883931770966</v>
+        <v>0.6408470430199306</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2014</v>
       </c>
       <c r="C108" t="n">
-        <v>3.134604631662004</v>
+        <v>0.6596427255978229</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2014</v>
       </c>
       <c r="C109" t="n">
-        <v>2.432505827996718</v>
+        <v>0.6850658632024548</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2014</v>
       </c>
       <c r="C110" t="n">
-        <v>3.37105521244988</v>
+        <v>0.5452698244317382</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2014</v>
       </c>
       <c r="C111" t="n">
-        <v>3.810317336778709</v>
+        <v>0.3709936434527591</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2014</v>
       </c>
       <c r="C112" t="n">
-        <v>2.360915378971536</v>
+        <v>0.6627286976441686</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2014</v>
       </c>
       <c r="C113" t="n">
-        <v>2.445093497214629</v>
+        <v>0.7093541846233089</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2014</v>
       </c>
       <c r="C114" t="n">
-        <v>2.824456482152216</v>
+        <v>0.4867033470746697</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>2014</v>
       </c>
       <c r="C115" t="n">
-        <v>3.588765525030813</v>
+        <v>0.382294042310141</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>2014</v>
       </c>
       <c r="C116" t="n">
-        <v>2.762257541762355</v>
+        <v>0.5402723993771076</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>2014</v>
       </c>
       <c r="C117" t="n">
-        <v>3.443423342962373</v>
+        <v>0.6635672603067717</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>2014</v>
       </c>
       <c r="C118" t="n">
-        <v>3.968130367667206</v>
+        <v>0.5016168840905902</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>2014</v>
       </c>
       <c r="C119" t="n">
-        <v>2.509817589980189</v>
+        <v>0.7238698073308114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>2014</v>
       </c>
       <c r="C120" t="n">
-        <v>2.79105439750406</v>
+        <v>0.7736590830910919</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>2014</v>
       </c>
       <c r="C121" t="n">
-        <v>2.657920817628944</v>
+        <v>0.4501706889912448</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>2.53763110768223</v>
+        <v>0.4784681664551756</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2014</v>
       </c>
       <c r="C123" t="n">
-        <v>3.555864070068314</v>
+        <v>0.4700829174575848</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2014</v>
       </c>
       <c r="C124" t="n">
-        <v>3.671964133568866</v>
+        <v>0.3914115922483336</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2014</v>
       </c>
       <c r="C125" t="n">
-        <v>3.597552078896384</v>
+        <v>0.7105717553726671</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2014</v>
       </c>
       <c r="C126" t="n">
-        <v>3.533289776686551</v>
+        <v>0.7389538041292349</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2014</v>
       </c>
       <c r="C127" t="n">
-        <v>3.830007192723307</v>
+        <v>0.7084877186708698</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>2014</v>
       </c>
       <c r="C128" t="n">
-        <v>3.679420248593458</v>
+        <v>0.4222149627810917</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2014</v>
       </c>
       <c r="C129" t="n">
-        <v>3.893641720859973</v>
+        <v>0.661511082904464</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2014</v>
       </c>
       <c r="C130" t="n">
-        <v>3.403335710448959</v>
+        <v>0.6587377305937971</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2014</v>
       </c>
       <c r="C131" t="n">
-        <v>3.586489592148783</v>
+        <v>0.7784563058965667</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2014</v>
       </c>
       <c r="C132" t="n">
-        <v>2.322923014137101</v>
+        <v>0.677481650446333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2014</v>
       </c>
       <c r="C133" t="n">
-        <v>3.44773271329193</v>
+        <v>0.7306726007364536</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2014</v>
       </c>
       <c r="C134" t="n">
-        <v>3.846865738053301</v>
+        <v>0.3442090504134431</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2014</v>
       </c>
       <c r="C135" t="n">
-        <v>3.744975844156888</v>
+        <v>0.6790870132241831</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2014</v>
       </c>
       <c r="C136" t="n">
-        <v>4.155548706979807</v>
+        <v>0.7689561506162454</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2014</v>
       </c>
       <c r="C137" t="n">
-        <v>3.462409744710104</v>
+        <v>0.76117695562124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2014</v>
       </c>
       <c r="C138" t="n">
-        <v>3.898499207154286</v>
+        <v>0.6683924054918626</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2014</v>
       </c>
       <c r="C139" t="n">
-        <v>1.886691970002328</v>
+        <v>0.5946211196875394</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>2014</v>
       </c>
       <c r="C140" t="n">
-        <v>3.47376184020505</v>
+        <v>0.6768459823784749</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>2014</v>
       </c>
       <c r="C141" t="n">
-        <v>3.754397347921802</v>
+        <v>0.3001337332416967</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>2014</v>
       </c>
       <c r="C142" t="n">
-        <v>3.687384363039075</v>
+        <v>0.5159064553034322</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>2014</v>
       </c>
       <c r="C143" t="n">
-        <v>3.330817740276196</v>
+        <v>0.6981596125200276</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C144" t="n">
-        <v>3.288687327874821</v>
+        <v>0.5922395887955377</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C145" t="n">
-        <v>3.744826372078013</v>
+        <v>0.6330163173125629</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2015</v>
       </c>
       <c r="C146" t="n">
-        <v>2.996586526088496</v>
+        <v>0.603670110201359</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2015</v>
       </c>
       <c r="C147" t="n">
-        <v>3.422873780106967</v>
+        <v>0.6318064403361104</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2015</v>
       </c>
       <c r="C148" t="n">
-        <v>3.211260372290406</v>
+        <v>0.5263567863862559</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>2015</v>
       </c>
       <c r="C149" t="n">
-        <v>3.662927251532387</v>
+        <v>0.58683888155157</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2015</v>
       </c>
       <c r="C150" t="n">
-        <v>3.431279353918128</v>
+        <v>0.6637035862474466</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2015</v>
       </c>
       <c r="C151" t="n">
-        <v>3.517641410703586</v>
+        <v>0.7686337511926847</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2015</v>
       </c>
       <c r="C152" t="n">
-        <v>3.713169226739612</v>
+        <v>0.5360925712562933</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2015</v>
       </c>
       <c r="C153" t="n">
-        <v>3.716384402786419</v>
+        <v>0.5934310326632767</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2015</v>
       </c>
       <c r="C154" t="n">
-        <v>3.158953667349429</v>
+        <v>0.619031953604523</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>2.893885852469164</v>
+        <v>0.7390293023048939</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2015</v>
       </c>
       <c r="C156" t="n">
-        <v>3.526904978996366</v>
+        <v>0.6198801442855729</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2015</v>
       </c>
       <c r="C157" t="n">
-        <v>2.858039346336909</v>
+        <v>0.625634008813027</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2015</v>
       </c>
       <c r="C158" t="n">
-        <v>3.135014730939064</v>
+        <v>0.6793307889329321</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2015</v>
       </c>
       <c r="C159" t="n">
-        <v>3.547495683679582</v>
+        <v>0.4875873348189327</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2015</v>
       </c>
       <c r="C160" t="n">
-        <v>3.721805064147548</v>
+        <v>0.4195713031456041</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2015</v>
       </c>
       <c r="C161" t="n">
-        <v>3.574407149754802</v>
+        <v>0.6950325116971082</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2015</v>
       </c>
       <c r="C162" t="n">
-        <v>2.658747147167357</v>
+        <v>0.6632456293006651</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>2015</v>
       </c>
       <c r="C163" t="n">
-        <v>2.618162313607106</v>
+        <v>0.7624011916258002</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2015</v>
       </c>
       <c r="C164" t="n">
-        <v>3.292116232604004</v>
+        <v>0.4455103459321192</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>2015</v>
       </c>
       <c r="C165" t="n">
-        <v>4.052888700176798</v>
+        <v>0.4626044210476737</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>2015</v>
       </c>
       <c r="C166" t="n">
-        <v>3.981865265944172</v>
+        <v>0.5299402991626986</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>2015</v>
       </c>
       <c r="C167" t="n">
-        <v>3.393970802766617</v>
+        <v>0.7632455945420769</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>2015</v>
       </c>
       <c r="C168" t="n">
-        <v>3.994159954056766</v>
+        <v>0.7998064468461826</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>2015</v>
       </c>
       <c r="C169" t="n">
-        <v>3.321643541004408</v>
+        <v>0.6239440090500599</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>2015</v>
       </c>
       <c r="C170" t="n">
-        <v>3.882574154957124</v>
+        <v>0.6796674224723104</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>2015</v>
       </c>
       <c r="C171" t="n">
-        <v>2.088056822373334</v>
+        <v>0.6723870796016208</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2015</v>
       </c>
       <c r="C172" t="n">
-        <v>1.391810014199886</v>
+        <v>0.692426299173154</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2015</v>
       </c>
       <c r="C173" t="n">
-        <v>2.810453917690277</v>
+        <v>0.3493727969122564</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>2015</v>
       </c>
       <c r="C174" t="n">
-        <v>3.022116591719995</v>
+        <v>0.2241292082289518</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>2015</v>
       </c>
       <c r="C175" t="n">
-        <v>2.797700977589652</v>
+        <v>0.5766230285448348</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2015</v>
       </c>
       <c r="C176" t="n">
-        <v>2.772525424340387</v>
+        <v>0.4651721245232029</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2015</v>
       </c>
       <c r="C177" t="n">
-        <v>3.423160083671336</v>
+        <v>0.5560926305526038</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>2015</v>
       </c>
       <c r="C178" t="n">
-        <v>3.712233151485418</v>
+        <v>0.5934781637704325</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2015</v>
       </c>
       <c r="C179" t="n">
-        <v>2.969326414334881</v>
+        <v>0.6408770579972959</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2015</v>
       </c>
       <c r="C180" t="n">
-        <v>2.566221664722629</v>
+        <v>0.645339223215843</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2015</v>
       </c>
       <c r="C181" t="n">
-        <v>3.402486249488287</v>
+        <v>0.7388486745318232</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2015</v>
       </c>
       <c r="C182" t="n">
-        <v>3.66995152313216</v>
+        <v>0.5291413144545865</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2015</v>
       </c>
       <c r="C183" t="n">
-        <v>2.275071453549166</v>
+        <v>0.3995850013801518</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2015</v>
       </c>
       <c r="C184" t="n">
-        <v>2.40154160375941</v>
+        <v>0.6614914028629082</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>2015</v>
       </c>
       <c r="C185" t="n">
-        <v>2.733594146581648</v>
+        <v>0.6813586553550192</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2015</v>
       </c>
       <c r="C186" t="n">
-        <v>3.655336237232363</v>
+        <v>0.4848363806358357</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>2015</v>
       </c>
       <c r="C187" t="n">
-        <v>2.835220393394165</v>
+        <v>0.3752058092155253</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>2015</v>
       </c>
       <c r="C188" t="n">
-        <v>3.164309970476082</v>
+        <v>0.5232541028215494</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>2015</v>
       </c>
       <c r="C189" t="n">
-        <v>4.104255676028739</v>
+        <v>0.6755144580799678</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>2015</v>
       </c>
       <c r="C190" t="n">
-        <v>2.630419742793964</v>
+        <v>0.5323526831526063</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>2015</v>
       </c>
       <c r="C191" t="n">
-        <v>2.77156408557855</v>
+        <v>0.6768396644726665</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>2015</v>
       </c>
       <c r="C192" t="n">
-        <v>2.760484513025848</v>
+        <v>0.7999253665910202</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>2015</v>
       </c>
       <c r="C193" t="n">
-        <v>2.590955550356593</v>
+        <v>0.4639656626537997</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>2015</v>
       </c>
       <c r="C194" t="n">
-        <v>3.617291666734704</v>
+        <v>0.4709593857695674</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>2015</v>
       </c>
       <c r="C195" t="n">
-        <v>3.661960755676083</v>
+        <v>0.479678570848548</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>2015</v>
       </c>
       <c r="C196" t="n">
-        <v>3.574663382120997</v>
+        <v>0.4004694151753149</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>2015</v>
       </c>
       <c r="C197" t="n">
-        <v>3.666442745290637</v>
+        <v>0.7216617672233367</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>2015</v>
       </c>
       <c r="C198" t="n">
-        <v>3.909154216628207</v>
+        <v>0.745977781024405</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>2015</v>
       </c>
       <c r="C199" t="n">
-        <v>3.404305536868635</v>
+        <v>0.7046729358749718</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>2015</v>
       </c>
       <c r="C200" t="n">
-        <v>4.167351380313668</v>
+        <v>0.4444071242151061</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>2015</v>
       </c>
       <c r="C201" t="n">
-        <v>3.274924054424038</v>
+        <v>0.6697601949322403</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>2015</v>
       </c>
       <c r="C202" t="n">
-        <v>3.25505987849951</v>
+        <v>0.6239623065878536</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>2015</v>
       </c>
       <c r="C203" t="n">
-        <v>2.358246180422165</v>
+        <v>0.8341291155328505</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>2015</v>
       </c>
       <c r="C204" t="n">
-        <v>3.565262980046303</v>
+        <v>0.65556846033175</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>2015</v>
       </c>
       <c r="C205" t="n">
-        <v>3.849111071757019</v>
+        <v>0.6773088890887049</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>2015</v>
       </c>
       <c r="C206" t="n">
-        <v>3.264291731509997</v>
+        <v>0.3366333954418674</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>2015</v>
       </c>
       <c r="C207" t="n">
-        <v>4.06926092706489</v>
+        <v>0.7065145184876082</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>2015</v>
       </c>
       <c r="C208" t="n">
-        <v>3.658385049223427</v>
+        <v>0.7684782938272605</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>2015</v>
       </c>
       <c r="C209" t="n">
-        <v>3.881632515373393</v>
+        <v>0.6788475312571194</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>2015</v>
       </c>
       <c r="C210" t="n">
-        <v>1.995534904000266</v>
+        <v>0.6611685730520555</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>2015</v>
       </c>
       <c r="C211" t="n">
-        <v>3.805512781179766</v>
+        <v>0.644836499342282</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>2015</v>
       </c>
       <c r="C212" t="n">
-        <v>3.674566785955545</v>
+        <v>0.6762502726712983</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>2015</v>
       </c>
       <c r="C213" t="n">
-        <v>3.636519710053346</v>
+        <v>0.3158884008371269</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>2015</v>
       </c>
       <c r="C214" t="n">
-        <v>3.395322781350735</v>
+        <v>0.5018390422620672</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C215" t="n">
-        <v>3.084874721627445</v>
+        <v>0.6797420444213571</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C216" t="n">
-        <v>3.557961058385236</v>
+        <v>0.5808650777832604</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C217" t="n">
-        <v>3.075432978959982</v>
+        <v>0.6446192365645907</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>2016</v>
       </c>
       <c r="C218" t="n">
-        <v>3.352941725016653</v>
+        <v>0.5804356122205385</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>2016</v>
       </c>
       <c r="C219" t="n">
-        <v>3.215129029743534</v>
+        <v>0.6008729204879812</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>2016</v>
       </c>
       <c r="C220" t="n">
-        <v>3.443808442039105</v>
+        <v>0.5416917246536592</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>2016</v>
       </c>
       <c r="C221" t="n">
-        <v>3.62309848477934</v>
+        <v>0.5687585300515935</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>2016</v>
       </c>
       <c r="C222" t="n">
-        <v>3.587427837791715</v>
+        <v>0.6639809088627028</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>2016</v>
       </c>
       <c r="C223" t="n">
-        <v>3.703995467463047</v>
+        <v>0.7406347403398508</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>2016</v>
       </c>
       <c r="C224" t="n">
-        <v>3.698092152221683</v>
+        <v>0.5723321044347888</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>2016</v>
       </c>
       <c r="C225" t="n">
-        <v>3.241858891182686</v>
+        <v>0.603214677316091</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>2016</v>
       </c>
       <c r="C226" t="n">
-        <v>2.775944218738351</v>
+        <v>0.6373736878796752</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>2016</v>
       </c>
       <c r="C227" t="n">
-        <v>3.638820056279329</v>
+        <v>0.7425905556888828</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>2016</v>
       </c>
       <c r="C228" t="n">
-        <v>2.874800186642153</v>
+        <v>0.6381172835081798</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>2016</v>
       </c>
       <c r="C229" t="n">
-        <v>3.207761828392594</v>
+        <v>0.6113384249456004</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>2016</v>
       </c>
       <c r="C230" t="n">
-        <v>3.697986431882195</v>
+        <v>0.7114717222952701</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>2016</v>
       </c>
       <c r="C231" t="n">
-        <v>3.918257784870815</v>
+        <v>0.4935218536489919</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>2016</v>
       </c>
       <c r="C232" t="n">
-        <v>3.459658485020351</v>
+        <v>0.448124744608769</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>2016</v>
       </c>
       <c r="C233" t="n">
-        <v>2.509239519564002</v>
+        <v>0.7297260702674503</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>2016</v>
       </c>
       <c r="C234" t="n">
-        <v>2.68986095446307</v>
+        <v>0.6950093910036489</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>2016</v>
       </c>
       <c r="C235" t="n">
-        <v>3.247761220214107</v>
+        <v>0.7388228341769101</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>2016</v>
       </c>
       <c r="C236" t="n">
-        <v>4.209732473926877</v>
+        <v>0.4248869565837229</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>2016</v>
       </c>
       <c r="C237" t="n">
-        <v>3.909737471063259</v>
+        <v>0.4861655890189391</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>2016</v>
       </c>
       <c r="C238" t="n">
-        <v>3.564201088532505</v>
+        <v>0.5066926459863526</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>2016</v>
       </c>
       <c r="C239" t="n">
-        <v>4.096254133496325</v>
+        <v>0.79840179806969</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>2016</v>
       </c>
       <c r="C240" t="n">
-        <v>3.15952282775093</v>
+        <v>0.7931097223954352</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>2016</v>
       </c>
       <c r="C241" t="n">
-        <v>3.993880185106277</v>
+        <v>0.6320602362353762</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>2016</v>
       </c>
       <c r="C242" t="n">
-        <v>2.412234772301378</v>
+        <v>0.6998381760691886</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>2016</v>
       </c>
       <c r="C243" t="n">
-        <v>1.28061440127975</v>
+        <v>0.6437505500859291</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>2016</v>
       </c>
       <c r="C244" t="n">
-        <v>3.14294376072856</v>
+        <v>0.7139509112895526</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>2016</v>
       </c>
       <c r="C245" t="n">
-        <v>3.10069438177809</v>
+        <v>0.3912477618104214</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>2016</v>
       </c>
       <c r="C246" t="n">
-        <v>2.748885560015497</v>
+        <v>0.2082969874006846</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>2016</v>
       </c>
       <c r="C247" t="n">
-        <v>2.691020039234366</v>
+        <v>0.6420151214780558</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>2016</v>
       </c>
       <c r="C248" t="n">
-        <v>3.47674112746599</v>
+        <v>0.4820102147088183</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>2016</v>
       </c>
       <c r="C249" t="n">
-        <v>3.324816472660336</v>
+        <v>0.550131149348249</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>2016</v>
       </c>
       <c r="C250" t="n">
-        <v>3.049054334123321</v>
+        <v>0.5851939873544086</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>2016</v>
       </c>
       <c r="C251" t="n">
-        <v>2.592883763282535</v>
+        <v>0.6501552753682907</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>2016</v>
       </c>
       <c r="C252" t="n">
-        <v>3.568251203245031</v>
+        <v>0.6609916267599192</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>2016</v>
       </c>
       <c r="C253" t="n">
-        <v>3.734268321921852</v>
+        <v>0.676609528588302</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>2016</v>
       </c>
       <c r="C254" t="n">
-        <v>2.28302597581247</v>
+        <v>0.5528828138235682</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>2016</v>
       </c>
       <c r="C255" t="n">
-        <v>2.289320839548653</v>
+        <v>0.4049119393069386</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>2016</v>
       </c>
       <c r="C256" t="n">
-        <v>3.11985701028247</v>
+        <v>0.6952566667964055</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>2016</v>
       </c>
       <c r="C257" t="n">
-        <v>2.869528376854226</v>
+        <v>0.7006582866101337</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>2016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.944178093509149</v>
+        <v>0.4836218352972822</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>2016</v>
       </c>
       <c r="C259" t="n">
-        <v>3.186193954735165</v>
+        <v>0.3618549463653373</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>2016</v>
       </c>
       <c r="C260" t="n">
-        <v>4.053593917179686</v>
+        <v>0.5833540375136765</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>2016</v>
       </c>
       <c r="C261" t="n">
-        <v>2.41840374179862</v>
+        <v>0.5489981347514837</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>2016</v>
       </c>
       <c r="C262" t="n">
-        <v>2.60540640013674</v>
+        <v>0.5336905250058928</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>2016</v>
       </c>
       <c r="C263" t="n">
-        <v>2.573298326575461</v>
+        <v>0.6889631240077621</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>2016</v>
       </c>
       <c r="C264" t="n">
-        <v>2.64894757330447</v>
+        <v>0.8009843921575599</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>2016</v>
       </c>
       <c r="C265" t="n">
-        <v>3.673599237349712</v>
+        <v>0.4525705448389958</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>2016</v>
       </c>
       <c r="C266" t="n">
-        <v>3.695919942485268</v>
+        <v>0.4529051776863733</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>2016</v>
       </c>
       <c r="C267" t="n">
-        <v>3.683673738812725</v>
+        <v>0.4564609920791234</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>2016</v>
       </c>
       <c r="C268" t="n">
-        <v>4.184556531185675</v>
+        <v>0.4120291176473533</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>2016</v>
       </c>
       <c r="C269" t="n">
-        <v>4.194707531470684</v>
+        <v>0.7335409486024784</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>2016</v>
       </c>
       <c r="C270" t="n">
-        <v>3.46736282389722</v>
+        <v>0.7720332483792677</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>2016</v>
       </c>
       <c r="C271" t="n">
-        <v>3.815414781153936</v>
+        <v>0.7177482952834501</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>2016</v>
       </c>
       <c r="C272" t="n">
-        <v>3.247458183946882</v>
+        <v>0.530759421864279</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>2016</v>
       </c>
       <c r="C273" t="n">
-        <v>3.629530820724386</v>
+        <v>0.6869562226997216</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>2016</v>
       </c>
       <c r="C274" t="n">
-        <v>2.349050106485895</v>
+        <v>0.641614256192531</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>2016</v>
       </c>
       <c r="C275" t="n">
-        <v>3.480716917507465</v>
+        <v>0.7739634433132545</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>2016</v>
       </c>
       <c r="C276" t="n">
-        <v>3.792694786621184</v>
+        <v>0.6457308689586017</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>2016</v>
       </c>
       <c r="C277" t="n">
-        <v>3.536018172748779</v>
+        <v>0.7481215293876031</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>2016</v>
       </c>
       <c r="C278" t="n">
-        <v>3.450429445970407</v>
+        <v>0.3558797111357958</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>2016</v>
       </c>
       <c r="C279" t="n">
-        <v>3.663413529360207</v>
+        <v>0.6916302776181507</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>2016</v>
       </c>
       <c r="C280" t="n">
-        <v>3.891064974658794</v>
+        <v>0.756987329116549</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>2016</v>
       </c>
       <c r="C281" t="n">
-        <v>1.952669902476198</v>
+        <v>0.7351054611313057</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>2016</v>
       </c>
       <c r="C282" t="n">
-        <v>4.033670777047708</v>
+        <v>0.5834648597001035</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>2016</v>
       </c>
       <c r="C283" t="n">
-        <v>3.711556241362909</v>
+        <v>0.655961179182508</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>2016</v>
       </c>
       <c r="C284" t="n">
-        <v>3.707053551339301</v>
+        <v>0.6776303906034611</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>2016</v>
       </c>
       <c r="C285" t="n">
-        <v>3.319563604973337</v>
+        <v>0.3286995229717952</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C286" t="n">
-        <v>3.116342301311902</v>
+        <v>0.5256529061437853</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C287" t="n">
-        <v>3.643795419598311</v>
+        <v>0.684711240638251</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C288" t="n">
-        <v>3.019898922477594</v>
+        <v>0.5935188601324322</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C289" t="n">
-        <v>3.534576542404141</v>
+        <v>0.6366795799313216</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>2017</v>
       </c>
       <c r="C290" t="n">
-        <v>3.396092356706019</v>
+        <v>0.5960096568537214</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>2017</v>
       </c>
       <c r="C291" t="n">
-        <v>3.330271707623588</v>
+        <v>0.6196741707756005</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>2017</v>
       </c>
       <c r="C292" t="n">
-        <v>3.742719477232332</v>
+        <v>0.5439519092316087</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>2017</v>
       </c>
       <c r="C293" t="n">
-        <v>3.48976418187235</v>
+        <v>0.6070880159755541</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>2017</v>
       </c>
       <c r="C294" t="n">
-        <v>3.835121770466733</v>
+        <v>0.7007354208692934</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>2017</v>
       </c>
       <c r="C295" t="n">
-        <v>3.576541336708836</v>
+        <v>0.7167970837964889</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>2017</v>
       </c>
       <c r="C296" t="n">
-        <v>2.989033995270959</v>
+        <v>0.594385140184676</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B297" t="n">
         <v>2017</v>
       </c>
       <c r="C297" t="n">
-        <v>2.805289580749905</v>
+        <v>0.5832949079669644</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>2017</v>
       </c>
       <c r="C298" t="n">
-        <v>3.510709270429189</v>
+        <v>0.6698171179670288</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>2017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.008801801239676</v>
+        <v>0.7034274177997261</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>2017</v>
       </c>
       <c r="C300" t="n">
-        <v>3.213300412368223</v>
+        <v>0.6035786867666799</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>2017</v>
       </c>
       <c r="C301" t="n">
-        <v>3.792361000447967</v>
+        <v>0.6184171418153475</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>2017</v>
       </c>
       <c r="C302" t="n">
-        <v>4.138295763971168</v>
+        <v>0.6970192122647909</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>2017</v>
       </c>
       <c r="C303" t="n">
-        <v>3.53824773805246</v>
+        <v>0.521214202260325</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>2017</v>
       </c>
       <c r="C304" t="n">
-        <v>2.571818375461065</v>
+        <v>0.4308458384313898</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B305" t="n">
         <v>2017</v>
       </c>
       <c r="C305" t="n">
-        <v>2.670614921022951</v>
+        <v>0.7446632911927934</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>2017</v>
       </c>
       <c r="C306" t="n">
-        <v>3.182125723325679</v>
+        <v>0.7363194361752894</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>2017</v>
       </c>
       <c r="C307" t="n">
-        <v>4.250424381896366</v>
+        <v>0.7456672331544341</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>2017</v>
       </c>
       <c r="C308" t="n">
-        <v>3.966975456662746</v>
+        <v>0.4385538963490049</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>2017</v>
       </c>
       <c r="C309" t="n">
-        <v>3.613643732244952</v>
+        <v>0.509083529491187</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>2017</v>
       </c>
       <c r="C310" t="n">
-        <v>4.116872400977199</v>
+        <v>0.5100804588902461</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>2017</v>
       </c>
       <c r="C311" t="n">
-        <v>3.233988537375031</v>
+        <v>0.810650860208987</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>2017</v>
       </c>
       <c r="C312" t="n">
-        <v>3.882081622175191</v>
+        <v>0.7932496394771416</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>2017</v>
       </c>
       <c r="C313" t="n">
-        <v>2.478483137540468</v>
+        <v>0.6327285806155137</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>2017</v>
       </c>
       <c r="C314" t="n">
-        <v>1.31198527003205</v>
+        <v>0.7046639186813849</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>2017</v>
       </c>
       <c r="C315" t="n">
-        <v>2.889339517466689</v>
+        <v>0.6501969661642253</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>2017</v>
       </c>
       <c r="C316" t="n">
-        <v>3.188641058268768</v>
+        <v>0.6955479200026933</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>2017</v>
       </c>
       <c r="C317" t="n">
-        <v>2.752171125980279</v>
+        <v>0.4107108546769658</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>2017</v>
       </c>
       <c r="C318" t="n">
-        <v>2.63539681407878</v>
+        <v>0.2219115348245447</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>2017</v>
       </c>
       <c r="C319" t="n">
-        <v>3.488091606295524</v>
+        <v>0.5901224981278955</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>2017</v>
       </c>
       <c r="C320" t="n">
-        <v>3.663215726541838</v>
+        <v>0.5037940468362636</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>2017</v>
       </c>
       <c r="C321" t="n">
-        <v>2.972854894435905</v>
+        <v>0.5519899041808451</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>2017</v>
       </c>
       <c r="C322" t="n">
-        <v>2.60444895915135</v>
+        <v>0.5879953089288752</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>2017</v>
       </c>
       <c r="C323" t="n">
-        <v>3.565321077008129</v>
+        <v>0.650098436353662</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>2017</v>
       </c>
       <c r="C324" t="n">
-        <v>3.870469850399882</v>
+        <v>0.6704305740174826</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>2017</v>
       </c>
       <c r="C325" t="n">
-        <v>2.392319223645445</v>
+        <v>0.7485910711517423</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>2017</v>
       </c>
       <c r="C326" t="n">
-        <v>2.38766745505147</v>
+        <v>0.5478718136329458</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>2017</v>
       </c>
       <c r="C327" t="n">
-        <v>2.875020626855656</v>
+        <v>0.4211732994056884</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>2017</v>
       </c>
       <c r="C328" t="n">
-        <v>3.406705385612035</v>
+        <v>0.699802064704093</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>2017</v>
       </c>
       <c r="C329" t="n">
-        <v>2.988994515133383</v>
+        <v>0.7213465197392815</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>2017</v>
       </c>
       <c r="C330" t="n">
-        <v>3.0565558875255</v>
+        <v>0.5002645432422943</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>2017</v>
       </c>
       <c r="C331" t="n">
-        <v>3.845076657315796</v>
+        <v>0.3613463662579201</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>2017</v>
       </c>
       <c r="C332" t="n">
-        <v>2.49459671901777</v>
+        <v>0.5563159707213351</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>2017</v>
       </c>
       <c r="C333" t="n">
-        <v>2.797072254185495</v>
+        <v>0.6391375748005312</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>2017</v>
       </c>
       <c r="C334" t="n">
-        <v>2.300234269701675</v>
+        <v>0.5430139182234769</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>2017</v>
       </c>
       <c r="C335" t="n">
-        <v>2.677994967071208</v>
+        <v>0.6718799043716801</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>2017</v>
       </c>
       <c r="C336" t="n">
-        <v>3.444353524279061</v>
+        <v>0.7674917125015531</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>2017</v>
       </c>
       <c r="C337" t="n">
-        <v>3.497854061942617</v>
+        <v>0.4757099499223051</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>2017</v>
       </c>
       <c r="C338" t="n">
-        <v>3.717322540239464</v>
+        <v>0.492947183666689</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>2017</v>
       </c>
       <c r="C339" t="n">
-        <v>4.213072919167913</v>
+        <v>0.4194439949239494</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>2017</v>
       </c>
       <c r="C340" t="n">
-        <v>4.166992216430372</v>
+        <v>0.4099098159090946</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>2017</v>
       </c>
       <c r="C341" t="n">
-        <v>3.608715508466906</v>
+        <v>0.6815716467093152</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>2017</v>
       </c>
       <c r="C342" t="n">
-        <v>4.00994387344662</v>
+        <v>0.7496423436571028</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>2017</v>
       </c>
       <c r="C343" t="n">
-        <v>3.168729568607192</v>
+        <v>0.7353164388199703</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>2017</v>
       </c>
       <c r="C344" t="n">
-        <v>3.725295846538229</v>
+        <v>0.5355121531946521</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>2017</v>
       </c>
       <c r="C345" t="n">
-        <v>2.424626682693322</v>
+        <v>0.6564962453046582</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>2017</v>
       </c>
       <c r="C346" t="n">
-        <v>3.473581992165319</v>
+        <v>0.6670134062294764</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>2017</v>
       </c>
       <c r="C347" t="n">
-        <v>3.758948176024973</v>
+        <v>0.8112939631099814</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>2017</v>
       </c>
       <c r="C348" t="n">
-        <v>3.735917967347153</v>
+        <v>0.6347566658579127</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>2017</v>
       </c>
       <c r="C349" t="n">
-        <v>3.719654704837774</v>
+        <v>0.7738578912213531</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>2017</v>
       </c>
       <c r="C350" t="n">
-        <v>3.683340713069232</v>
+        <v>0.3669796445879075</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>2017</v>
       </c>
       <c r="C351" t="n">
-        <v>3.918957780067575</v>
+        <v>0.7018897843708917</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>2017</v>
       </c>
       <c r="C352" t="n">
-        <v>1.957152860553284</v>
+        <v>0.7396210800659488</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>2017</v>
       </c>
       <c r="C353" t="n">
-        <v>3.84568706902849</v>
+        <v>0.7717665631027069</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>2017</v>
       </c>
       <c r="C354" t="n">
-        <v>3.788990149107026</v>
+        <v>0.6267003935831958</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>2017</v>
       </c>
       <c r="C355" t="n">
-        <v>3.713362230919705</v>
+        <v>0.6604935943583</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>2017</v>
       </c>
       <c r="C356" t="n">
-        <v>3.292055310211193</v>
+        <v>0.677470670909981</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C357" t="n">
-        <v>3.134884613766976</v>
+        <v>0.3131150853247926</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C358" t="n">
-        <v>3.587080309926143</v>
+        <v>0.5120203391333247</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C359" t="n">
-        <v>3.237523305016377</v>
+        <v>0.6831922321532599</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C360" t="n">
-        <v>3.947161044597574</v>
+        <v>0.5896677967804562</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C361" t="n">
-        <v>3.258382039082102</v>
+        <v>0.6395131678156096</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>2018</v>
       </c>
       <c r="C362" t="n">
-        <v>3.885870876318785</v>
+        <v>0.600465417009505</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>2018</v>
       </c>
       <c r="C363" t="n">
-        <v>3.565227820127987</v>
+        <v>0.6129536920267236</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>2018</v>
       </c>
       <c r="C364" t="n">
-        <v>3.435891599567888</v>
+        <v>0.5867046436010472</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>2018</v>
       </c>
       <c r="C365" t="n">
-        <v>3.680359274125811</v>
+        <v>0.6777033882103256</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>2018</v>
       </c>
       <c r="C366" t="n">
-        <v>3.762402598425268</v>
+        <v>0.670860504798838</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>2018</v>
       </c>
       <c r="C367" t="n">
-        <v>3.001719521030166</v>
+        <v>0.8100655282187359</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>2018</v>
       </c>
       <c r="C368" t="n">
-        <v>2.783577528426931</v>
+        <v>0.5800775747902354</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>2018</v>
       </c>
       <c r="C369" t="n">
-        <v>3.50779082664051</v>
+        <v>0.576323269207746</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>2018</v>
       </c>
       <c r="C370" t="n">
-        <v>2.931383925867904</v>
+        <v>0.6389525786779993</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>2018</v>
       </c>
       <c r="C371" t="n">
-        <v>3.208896133724537</v>
+        <v>0.7435949455647536</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>2018</v>
       </c>
       <c r="C372" t="n">
-        <v>3.754769732151709</v>
+        <v>0.6027690300851355</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>2018</v>
       </c>
       <c r="C373" t="n">
-        <v>3.263569931019727</v>
+        <v>0.6054451850007648</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>2018</v>
       </c>
       <c r="C374" t="n">
-        <v>3.567678505665834</v>
+        <v>0.6784583600500801</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>2018</v>
       </c>
       <c r="C375" t="n">
-        <v>2.645715857310416</v>
+        <v>0.518532957104066</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>2018</v>
       </c>
       <c r="C376" t="n">
-        <v>2.687805842482976</v>
+        <v>0.4382130498882723</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>2018</v>
       </c>
       <c r="C377" t="n">
-        <v>3.138668877229736</v>
+        <v>0.7353000998956098</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>2018</v>
       </c>
       <c r="C378" t="n">
-        <v>4.234641621982329</v>
+        <v>0.6028046896301864</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>2018</v>
       </c>
       <c r="C379" t="n">
-        <v>3.681352409658056</v>
+        <v>0.7442946129400592</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>2018</v>
       </c>
       <c r="C380" t="n">
-        <v>3.319547029664233</v>
+        <v>0.4616124501690804</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>2018</v>
       </c>
       <c r="C381" t="n">
-        <v>3.996934512967726</v>
+        <v>0.5052108218608324</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>2018</v>
       </c>
       <c r="C382" t="n">
-        <v>3.125046205901801</v>
+        <v>0.4973887945799357</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>2018</v>
       </c>
       <c r="C383" t="n">
-        <v>3.924065183269481</v>
+        <v>0.8071128164679023</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>2018</v>
       </c>
       <c r="C384" t="n">
-        <v>2.485000318838285</v>
+        <v>0.742172159734778</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>2018</v>
       </c>
       <c r="C385" t="n">
-        <v>1.295514925012818</v>
+        <v>0.6002119457410338</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>2018</v>
       </c>
       <c r="C386" t="n">
-        <v>3.260711185258969</v>
+        <v>0.7085369378545752</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>2018</v>
       </c>
       <c r="C387" t="n">
-        <v>3.06443921009244</v>
+        <v>0.6311627720272395</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>2018</v>
       </c>
       <c r="C388" t="n">
-        <v>2.806308891794612</v>
+        <v>0.69916846636069</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>2018</v>
       </c>
       <c r="C389" t="n">
-        <v>2.593083711425177</v>
+        <v>0.4215977176832385</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>2018</v>
       </c>
       <c r="C390" t="n">
-        <v>3.531596034515118</v>
+        <v>0.2122444848890381</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>2018</v>
       </c>
       <c r="C391" t="n">
-        <v>3.71955257522467</v>
+        <v>0.6495273174190392</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>2018</v>
       </c>
       <c r="C392" t="n">
-        <v>2.939882053069748</v>
+        <v>0.4949796201044154</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>2018</v>
       </c>
       <c r="C393" t="n">
-        <v>2.878103989539054</v>
+        <v>0.5571351011067127</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>2018</v>
       </c>
       <c r="C394" t="n">
-        <v>3.616798453311876</v>
+        <v>0.5854551571957198</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>2018</v>
       </c>
       <c r="C395" t="n">
-        <v>3.8701085929924</v>
+        <v>0.6256533075286951</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B396" t="n">
         <v>2018</v>
       </c>
       <c r="C396" t="n">
-        <v>2.440722693752434</v>
+        <v>0.6695237225580071</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>2018</v>
       </c>
       <c r="C397" t="n">
-        <v>2.326623091318074</v>
+        <v>0.7498454030731301</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>2018</v>
       </c>
       <c r="C398" t="n">
-        <v>2.804352322514521</v>
+        <v>0.543140557758889</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>2018</v>
       </c>
       <c r="C399" t="n">
-        <v>3.032484529948313</v>
+        <v>0.4717630444756826</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>2018</v>
       </c>
       <c r="C400" t="n">
-        <v>2.881925297766754</v>
+        <v>0.7056088227347328</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>2018</v>
       </c>
       <c r="C401" t="n">
-        <v>2.91696561163205</v>
+        <v>0.7239826586883463</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>2018</v>
       </c>
       <c r="C402" t="n">
-        <v>3.848075926549348</v>
+        <v>0.5174354906049907</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>2018</v>
       </c>
       <c r="C403" t="n">
-        <v>2.6952556243983</v>
+        <v>0.3448993736224227</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>2018</v>
       </c>
       <c r="C404" t="n">
-        <v>2.742550381893243</v>
+        <v>0.5455400204354186</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>2018</v>
       </c>
       <c r="C405" t="n">
-        <v>2.559983350233446</v>
+        <v>0.5814389127571864</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>2018</v>
       </c>
       <c r="C406" t="n">
-        <v>2.596755720400722</v>
+        <v>0.5210688823078511</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>2018</v>
       </c>
       <c r="C407" t="n">
-        <v>3.267245629512598</v>
+        <v>0.652827601938675</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>2018</v>
       </c>
       <c r="C408" t="n">
-        <v>3.615106722289405</v>
+        <v>0.7653864907796193</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>2018</v>
       </c>
       <c r="C409" t="n">
-        <v>3.649921061388654</v>
+        <v>0.5089022316998962</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>2018</v>
       </c>
       <c r="C410" t="n">
-        <v>4.161243148413576</v>
+        <v>0.4797113612154262</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>2018</v>
       </c>
       <c r="C411" t="n">
-        <v>3.936256394913267</v>
+        <v>0.4665952978790188</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>2018</v>
       </c>
       <c r="C412" t="n">
-        <v>3.16934633475024</v>
+        <v>0.3948210375092172</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>2018</v>
       </c>
       <c r="C413" t="n">
-        <v>4.052068889034964</v>
+        <v>0.6452268765176556</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B414" t="n">
         <v>2018</v>
       </c>
       <c r="C414" t="n">
-        <v>3.208635321407946</v>
+        <v>0.7606918847127777</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>2018</v>
       </c>
       <c r="C415" t="n">
-        <v>3.640497189125093</v>
+        <v>0.7281143954184421</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>2018</v>
       </c>
       <c r="C416" t="n">
-        <v>2.399158668080502</v>
+        <v>0.5268738580689294</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>2018</v>
       </c>
       <c r="C417" t="n">
-        <v>3.360554937859434</v>
+        <v>0.6201942921785053</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>2018</v>
       </c>
       <c r="C418" t="n">
-        <v>3.682058460576542</v>
+        <v>0.59379682093951</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>2018</v>
       </c>
       <c r="C419" t="n">
-        <v>3.699647699779442</v>
+        <v>0.8139206763449585</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>2018</v>
       </c>
       <c r="C420" t="n">
-        <v>3.714483170980073</v>
+        <v>0.651463718029856</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>2018</v>
       </c>
       <c r="C421" t="n">
-        <v>3.611934963647998</v>
+        <v>0.7549611924713633</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>2018</v>
       </c>
       <c r="C422" t="n">
-        <v>3.871488787216236</v>
+        <v>0.3703807644579702</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>2018</v>
       </c>
       <c r="C423" t="n">
-        <v>1.823223723598212</v>
+        <v>0.6506526725601098</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>2018</v>
       </c>
       <c r="C424" t="n">
-        <v>3.947995898674602</v>
+        <v>0.7271012018648311</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>2018</v>
       </c>
       <c r="C425" t="n">
-        <v>3.874290287521481</v>
+        <v>0.7568169978156003</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>2018</v>
       </c>
       <c r="C426" t="n">
-        <v>3.684382646173275</v>
+        <v>0.632227678586504</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>2018</v>
       </c>
       <c r="C427" t="n">
-        <v>3.013665313207125</v>
+        <v>0.6502498171489109</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C428" t="n">
-        <v>3.216712000652431</v>
+        <v>0.6698275857184663</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C429" t="n">
-        <v>3.628612008683703</v>
+        <v>0.3103217066686225</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C430" t="n">
-        <v>2.828011916926722</v>
+        <v>0.5542103241217429</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C431" t="n">
-        <v>3.861596012576034</v>
+        <v>0.7036115039058747</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C432" t="n">
-        <v>3.212588045421343</v>
+        <v>0.5800118390363918</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C433" t="n">
-        <v>3.329155427144987</v>
+        <v>0.5859783524624973</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>2019</v>
       </c>
       <c r="C434" t="n">
-        <v>3.597332944152886</v>
+        <v>0.6204621011188395</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>2019</v>
       </c>
       <c r="C435" t="n">
-        <v>3.580702092581401</v>
+        <v>0.6128494761947586</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>2019</v>
       </c>
       <c r="C436" t="n">
-        <v>3.866060200690883</v>
+        <v>0.5105609087133762</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>2019</v>
       </c>
       <c r="C437" t="n">
-        <v>3.774373930138498</v>
+        <v>0.6638013556313592</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>2019</v>
       </c>
       <c r="C438" t="n">
-        <v>3.067536967986145</v>
+        <v>0.65832696379918</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>2019</v>
       </c>
       <c r="C439" t="n">
-        <v>2.828335772067728</v>
+        <v>0.7149602479585079</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>2019</v>
       </c>
       <c r="C440" t="n">
-        <v>3.446630312603086</v>
+        <v>0.580026871163528</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>2019</v>
       </c>
       <c r="C441" t="n">
-        <v>2.824574245734564</v>
+        <v>0.6008240861373042</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>2019</v>
       </c>
       <c r="C442" t="n">
-        <v>3.125171625844507</v>
+        <v>0.6738046462430933</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>2019</v>
       </c>
       <c r="C443" t="n">
-        <v>3.803514514231906</v>
+        <v>0.7379848806123086</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>2019</v>
       </c>
       <c r="C444" t="n">
-        <v>3.546332910421789</v>
+        <v>0.6139497640246268</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B445" t="n">
         <v>2019</v>
       </c>
       <c r="C445" t="n">
-        <v>3.487188905459392</v>
+        <v>0.6084263323816583</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>2019</v>
       </c>
       <c r="C446" t="n">
-        <v>2.635560519365525</v>
+        <v>0.6661892271846894</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>2019</v>
       </c>
       <c r="C447" t="n">
-        <v>2.746911674690188</v>
+        <v>0.5091462126729324</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>2019</v>
       </c>
       <c r="C448" t="n">
-        <v>3.173658416235472</v>
+        <v>0.4185050352838487</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>2019</v>
       </c>
       <c r="C449" t="n">
-        <v>4.275380556391138</v>
+        <v>0.7414948432810751</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>2019</v>
       </c>
       <c r="C450" t="n">
-        <v>3.897809600344347</v>
+        <v>0.6435807375955507</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>2019</v>
       </c>
       <c r="C451" t="n">
-        <v>3.329526623729306</v>
+        <v>0.7313665010782486</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>2019</v>
       </c>
       <c r="C452" t="n">
-        <v>3.963929199620264</v>
+        <v>0.4594621067629409</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>2019</v>
       </c>
       <c r="C453" t="n">
-        <v>3.317697727294993</v>
+        <v>0.4958657504955027</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>2019</v>
       </c>
       <c r="C454" t="n">
-        <v>3.927646697178892</v>
+        <v>0.509246099675609</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>2019</v>
       </c>
       <c r="C455" t="n">
-        <v>2.625355485589685</v>
+        <v>0.814078577580341</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>2019</v>
       </c>
       <c r="C456" t="n">
-        <v>1.322087435642918</v>
+        <v>0.7853251690809601</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B457" t="n">
         <v>2019</v>
       </c>
       <c r="C457" t="n">
-        <v>3.261999058813963</v>
+        <v>0.5944833935171737</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>2019</v>
       </c>
       <c r="C458" t="n">
-        <v>3.121525962290161</v>
+        <v>0.6854023413508521</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>2019</v>
       </c>
       <c r="C459" t="n">
-        <v>2.811823024856437</v>
+        <v>0.6610304292966402</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>2019</v>
       </c>
       <c r="C460" t="n">
-        <v>2.582271509237052</v>
+        <v>0.7062912845466502</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>2019</v>
       </c>
       <c r="C461" t="n">
-        <v>3.480200807377297</v>
+        <v>0.4215659816050149</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>2019</v>
       </c>
       <c r="C462" t="n">
-        <v>3.733434045438648</v>
+        <v>0.1962738318664121</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>2019</v>
       </c>
       <c r="C463" t="n">
-        <v>2.315428560369475</v>
+        <v>0.6488853650211823</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>2019</v>
       </c>
       <c r="C464" t="n">
-        <v>2.942363391528699</v>
+        <v>0.4756415324355655</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>2019</v>
       </c>
       <c r="C465" t="n">
-        <v>3.61116871917767</v>
+        <v>0.540522692694928</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>2019</v>
       </c>
       <c r="C466" t="n">
-        <v>3.912736051144269</v>
+        <v>0.5827354872297442</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B467" t="n">
         <v>2019</v>
       </c>
       <c r="C467" t="n">
-        <v>2.598790492570171</v>
+        <v>0.6506091510912126</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B468" t="n">
         <v>2019</v>
       </c>
       <c r="C468" t="n">
-        <v>2.451132715151025</v>
+        <v>0.6628617507244989</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>2019</v>
       </c>
       <c r="C469" t="n">
-        <v>2.89398166862402</v>
+        <v>0.7540571893912897</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>2019</v>
       </c>
       <c r="C470" t="n">
-        <v>2.9918610160516</v>
+        <v>0.4365781607349797</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>2019</v>
       </c>
       <c r="C471" t="n">
-        <v>2.973085263827333</v>
+        <v>0.4720437302379482</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>2019</v>
       </c>
       <c r="C472" t="n">
-        <v>2.78239364018201</v>
+        <v>0.6897402410750662</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>2019</v>
       </c>
       <c r="C473" t="n">
-        <v>3.806315149390121</v>
+        <v>0.7351193081873444</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>2019</v>
       </c>
       <c r="C474" t="n">
-        <v>2.560417461901209</v>
+        <v>0.5497984154283619</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>2019</v>
       </c>
       <c r="C475" t="n">
-        <v>2.481005865807966</v>
+        <v>0.3339429946127129</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>2019</v>
       </c>
       <c r="C476" t="n">
-        <v>2.488583054343279</v>
+        <v>0.5510171467908721</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>2019</v>
       </c>
       <c r="C477" t="n">
-        <v>2.476345190489367</v>
+        <v>0.5717074757392397</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>2019</v>
       </c>
       <c r="C478" t="n">
-        <v>3.703558007433413</v>
+        <v>0.531709496833175</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>2019</v>
       </c>
       <c r="C479" t="n">
-        <v>3.585226136895385</v>
+        <v>0.630398940030335</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>2019</v>
       </c>
       <c r="C480" t="n">
-        <v>3.667579676953228</v>
+        <v>0.7534094272552557</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>2019</v>
       </c>
       <c r="C481" t="n">
-        <v>4.186233248288938</v>
+        <v>0.4826284995424573</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>2019</v>
       </c>
       <c r="C482" t="n">
-        <v>3.973077157686445</v>
+        <v>0.4278107419444253</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>2019</v>
       </c>
       <c r="C483" t="n">
-        <v>3.442813975839151</v>
+        <v>0.4464136740403781</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>2019</v>
       </c>
       <c r="C484" t="n">
-        <v>3.339662078832104</v>
+        <v>0.391175376866073</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>2019</v>
       </c>
       <c r="C485" t="n">
-        <v>3.066364365639438</v>
+        <v>0.7194482200941209</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>2019</v>
       </c>
       <c r="C486" t="n">
-        <v>3.648872827539567</v>
+        <v>0.75342994537482</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>2019</v>
       </c>
       <c r="C487" t="n">
-        <v>2.422934512506878</v>
+        <v>0.7259097441386692</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B488" t="n">
         <v>2019</v>
       </c>
       <c r="C488" t="n">
-        <v>3.469636338052659</v>
+        <v>0.5310388747148229</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>2019</v>
       </c>
       <c r="C489" t="n">
-        <v>3.665409367108332</v>
+        <v>0.6308663949679428</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B490" t="n">
         <v>2019</v>
       </c>
       <c r="C490" t="n">
-        <v>3.584634588544221</v>
+        <v>0.6438359993401952</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>2019</v>
       </c>
       <c r="C491" t="n">
-        <v>3.716497017739053</v>
+        <v>0.6988662387279096</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>2019</v>
       </c>
       <c r="C492" t="n">
-        <v>3.253226352551235</v>
+        <v>0.6181314346772802</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>2019</v>
       </c>
       <c r="C493" t="n">
-        <v>3.902403536339578</v>
+        <v>0.7571353702464936</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>2019</v>
       </c>
       <c r="C494" t="n">
-        <v>1.963060470230088</v>
+        <v>0.3410278059565335</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>2019</v>
       </c>
       <c r="C495" t="n">
-        <v>3.964599031816299</v>
+        <v>0.6681717129077661</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>2019</v>
       </c>
       <c r="C496" t="n">
-        <v>3.961598735717376</v>
+        <v>0.724032874316035</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>2019</v>
       </c>
       <c r="C497" t="n">
-        <v>3.73465382153737</v>
+        <v>0.7383481889997944</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>2019</v>
       </c>
       <c r="C498" t="n">
-        <v>3.100168015906077</v>
+        <v>0.6256451258521317</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C499" t="n">
-        <v>3.279847265388625</v>
+        <v>0.5809249308124113</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C500" t="n">
-        <v>3.532972355920611</v>
+        <v>0.6709393099286501</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C501" t="n">
-        <v>2.859186522398184</v>
+        <v>0.3138770817386847</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C502" t="n">
-        <v>4.059281920257327</v>
+        <v>0.5609348554710667</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C503" t="n">
-        <v>3.119161183087004</v>
+        <v>0.7138018094882497</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C504" t="n">
-        <v>3.482479545720713</v>
+        <v>0.5753042564515145</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C505" t="n">
-        <v>3.482022812139686</v>
+        <v>0.5934623460853564</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>2020</v>
       </c>
       <c r="C506" t="n">
-        <v>4.403130845855152</v>
+        <v>0.6205243724101316</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>2020</v>
       </c>
       <c r="C507" t="n">
-        <v>3.912061282925491</v>
+        <v>0.6023031336554246</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>2020</v>
       </c>
       <c r="C508" t="n">
-        <v>3.708109204788853</v>
+        <v>0.5212950588514969</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>2020</v>
       </c>
       <c r="C509" t="n">
-        <v>2.907367937361182</v>
+        <v>0.7204066358323613</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>2020</v>
       </c>
       <c r="C510" t="n">
-        <v>2.763881726975592</v>
+        <v>0.6494496346924714</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>2020</v>
       </c>
       <c r="C511" t="n">
-        <v>3.140542376045262</v>
+        <v>0.7470799242867855</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>2020</v>
       </c>
       <c r="C512" t="n">
-        <v>3.081908010779685</v>
+        <v>0.6005035307264823</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>2020</v>
       </c>
       <c r="C513" t="n">
-        <v>3.091781081274584</v>
+        <v>0.7489573294367017</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>2020</v>
       </c>
       <c r="C514" t="n">
-        <v>3.797663529168438</v>
+        <v>0.6830284811386942</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>2020</v>
       </c>
       <c r="C515" t="n">
-        <v>3.691962910354871</v>
+        <v>0.7287977269330671</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>2020</v>
       </c>
       <c r="C516" t="n">
-        <v>3.941305421036633</v>
+        <v>0.5910001002492908</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>2020</v>
       </c>
       <c r="C517" t="n">
-        <v>2.335999030834016</v>
+        <v>0.6003648058252863</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>2020</v>
       </c>
       <c r="C518" t="n">
-        <v>2.76130650474819</v>
+        <v>0.5983920780476956</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>2020</v>
       </c>
       <c r="C519" t="n">
-        <v>3.321631923349268</v>
+        <v>0.5575109842527541</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>2020</v>
       </c>
       <c r="C520" t="n">
-        <v>3.981342169394626</v>
+        <v>0.405240778874033</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B521" t="n">
         <v>2020</v>
       </c>
       <c r="C521" t="n">
-        <v>3.897625841282728</v>
+        <v>0.7529475388187223</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>2020</v>
       </c>
       <c r="C522" t="n">
-        <v>3.358227507335497</v>
+        <v>0.6581016136538278</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>2020</v>
       </c>
       <c r="C523" t="n">
-        <v>3.812272936432642</v>
+        <v>0.8101669281036818</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>2020</v>
       </c>
       <c r="C524" t="n">
-        <v>3.226575179259746</v>
+        <v>0.4169150130066098</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>2020</v>
       </c>
       <c r="C525" t="n">
-        <v>3.945585401315781</v>
+        <v>0.4783946363041159</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>2020</v>
       </c>
       <c r="C526" t="n">
-        <v>2.735206233561583</v>
+        <v>0.5189697625911286</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B527" t="n">
         <v>2020</v>
       </c>
       <c r="C527" t="n">
-        <v>1.308731992141662</v>
+        <v>0.7638464114843819</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>2020</v>
       </c>
       <c r="C528" t="n">
-        <v>2.876685663513999</v>
+        <v>0.7875135128851571</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>2020</v>
       </c>
       <c r="C529" t="n">
-        <v>3.053821427581406</v>
+        <v>0.5901802582762995</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>2020</v>
       </c>
       <c r="C530" t="n">
-        <v>2.833103277802989</v>
+        <v>0.6586199151605499</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>2020</v>
       </c>
       <c r="C531" t="n">
-        <v>2.687046902376743</v>
+        <v>0.6451056298947107</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>2020</v>
       </c>
       <c r="C532" t="n">
-        <v>3.53951996028744</v>
+        <v>0.7162881076709156</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>2020</v>
       </c>
       <c r="C533" t="n">
-        <v>3.146005324214187</v>
+        <v>0.4398611944704283</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>2020</v>
       </c>
       <c r="C534" t="n">
-        <v>2.73298784880417</v>
+        <v>0.1813160663336121</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>2020</v>
       </c>
       <c r="C535" t="n">
-        <v>2.693560132685288</v>
+        <v>0.5969191244218031</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>2020</v>
       </c>
       <c r="C536" t="n">
-        <v>3.671960649887689</v>
+        <v>0.4555247685867725</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>2020</v>
       </c>
       <c r="C537" t="n">
-        <v>3.660864628744819</v>
+        <v>0.545162718483533</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>2020</v>
       </c>
       <c r="C538" t="n">
-        <v>2.825934238484578</v>
+        <v>0.5987726027383193</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>2020</v>
       </c>
       <c r="C539" t="n">
-        <v>2.535699857282435</v>
+        <v>0.6463259238379453</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>2020</v>
       </c>
       <c r="C540" t="n">
-        <v>3.045745512445997</v>
+        <v>0.6804426918800643</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>2020</v>
       </c>
       <c r="C541" t="n">
-        <v>3.202496128391274</v>
+        <v>0.6580835424603677</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>2020</v>
       </c>
       <c r="C542" t="n">
-        <v>2.9749327572187</v>
+        <v>0.5040601017675966</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>2020</v>
       </c>
       <c r="C543" t="n">
-        <v>3.098394644692289</v>
+        <v>0.4282176998136178</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>2020</v>
       </c>
       <c r="C544" t="n">
-        <v>3.812655527869593</v>
+        <v>0.7026970046792378</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>2020</v>
       </c>
       <c r="C545" t="n">
-        <v>2.612078936822188</v>
+        <v>0.7028371776792097</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>2020</v>
       </c>
       <c r="C546" t="n">
-        <v>2.642028755309942</v>
+        <v>0.6022062580509202</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>2020</v>
       </c>
       <c r="C547" t="n">
-        <v>2.294576679116788</v>
+        <v>0.3326365379789769</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>2020</v>
       </c>
       <c r="C548" t="n">
-        <v>2.498272885635461</v>
+        <v>0.5753580194825441</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>2020</v>
       </c>
       <c r="C549" t="n">
-        <v>3.368628412831128</v>
+        <v>0.604196090127068</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>2020</v>
       </c>
       <c r="C550" t="n">
-        <v>3.807639337085988</v>
+        <v>0.5279255807156868</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>2020</v>
       </c>
       <c r="C551" t="n">
-        <v>3.706998742742662</v>
+        <v>0.6796293479985429</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>2020</v>
       </c>
       <c r="C552" t="n">
-        <v>4.130503965454706</v>
+        <v>0.7539992890091933</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>2020</v>
       </c>
       <c r="C553" t="n">
-        <v>4.15028232122347</v>
+        <v>0.4788444095282414</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>2020</v>
       </c>
       <c r="C554" t="n">
-        <v>3.462674362689889</v>
+        <v>0.4662921862937441</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>2020</v>
       </c>
       <c r="C555" t="n">
-        <v>3.718912606908373</v>
+        <v>0.4027767064217977</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>2020</v>
       </c>
       <c r="C556" t="n">
-        <v>3.315231046263517</v>
+        <v>0.4027235420714556</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>2020</v>
       </c>
       <c r="C557" t="n">
-        <v>3.699825909609181</v>
+        <v>0.6640786909791797</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>2020</v>
       </c>
       <c r="C558" t="n">
-        <v>2.434845444166066</v>
+        <v>0.7915065380945447</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>2020</v>
       </c>
       <c r="C559" t="n">
-        <v>3.55767622863471</v>
+        <v>0.740007115470675</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>2020</v>
       </c>
       <c r="C560" t="n">
-        <v>3.693412812056361</v>
+        <v>0.5217506609091177</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>2020</v>
       </c>
       <c r="C561" t="n">
-        <v>3.600804876303851</v>
+        <v>0.6606954528861326</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>2020</v>
       </c>
       <c r="C562" t="n">
-        <v>3.846620647109293</v>
+        <v>0.6390584961509738</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>2020</v>
       </c>
       <c r="C563" t="n">
-        <v>3.311159922333218</v>
+        <v>0.7776230723939347</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>2020</v>
       </c>
       <c r="C564" t="n">
-        <v>3.965750035016104</v>
+        <v>0.66223284665072</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>2020</v>
       </c>
       <c r="C565" t="n">
-        <v>2.049464990720929</v>
+        <v>0.776612330566985</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>2020</v>
       </c>
       <c r="C566" t="n">
-        <v>4.049979601217519</v>
+        <v>0.3541707500088678</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>2020</v>
       </c>
       <c r="C567" t="n">
-        <v>4.097347926327153</v>
+        <v>0.6888946725785647</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>2020</v>
       </c>
       <c r="C568" t="n">
-        <v>3.80899678290981</v>
+        <v>0.7294230251962265</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>2020</v>
       </c>
       <c r="C569" t="n">
-        <v>3.250257429664372</v>
+        <v>0.7382242165878096</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C570" t="n">
-        <v>3.157767046200862</v>
+        <v>0.6406512798537192</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C571" t="n">
-        <v>3.393185633991625</v>
+        <v>0.5817930671785242</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C572" t="n">
-        <v>3.110497311752354</v>
+        <v>0.6742518823055417</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C573" t="n">
-        <v>3.911543541529408</v>
+        <v>0.3058567532916144</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C574" t="n">
-        <v>3.120295928692101</v>
+        <v>0.5799522883924658</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C575" t="n">
-        <v>3.444895129943383</v>
+        <v>0.7046854972165802</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C576" t="n">
-        <v>3.766423224811084</v>
+        <v>0.5788552243536607</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C577" t="n">
-        <v>4.355864244626358</v>
+        <v>0.6060069129021014</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>2021</v>
       </c>
       <c r="C578" t="n">
-        <v>3.177649543630422</v>
+        <v>0.6046099198865237</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>2021</v>
       </c>
       <c r="C579" t="n">
-        <v>3.673448629413775</v>
+        <v>0.576104415701113</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>2021</v>
       </c>
       <c r="C580" t="n">
-        <v>2.881245837863363</v>
+        <v>0.5671617383386538</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>2021</v>
       </c>
       <c r="C581" t="n">
-        <v>2.690083716176897</v>
+        <v>0.6813146045918189</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>2021</v>
       </c>
       <c r="C582" t="n">
-        <v>3.427609764199093</v>
+        <v>0.6426299666099737</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>2021</v>
       </c>
       <c r="C583" t="n">
-        <v>2.78020890041527</v>
+        <v>0.7345434535568721</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>2021</v>
       </c>
       <c r="C584" t="n">
-        <v>2.954688716835512</v>
+        <v>0.5927909675760408</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>2021</v>
       </c>
       <c r="C585" t="n">
-        <v>3.779597960122608</v>
+        <v>0.7462282701617404</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>2021</v>
       </c>
       <c r="C586" t="n">
-        <v>3.795997104216455</v>
+        <v>0.526024027881056</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>2021</v>
       </c>
       <c r="C587" t="n">
-        <v>3.978787100179964</v>
+        <v>0.7328507572320448</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>2021</v>
       </c>
       <c r="C588" t="n">
-        <v>2.514904262938614</v>
+        <v>0.6008169586403096</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>2021</v>
       </c>
       <c r="C589" t="n">
-        <v>2.498508280254092</v>
+        <v>0.5908204043090528</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>2021</v>
       </c>
       <c r="C590" t="n">
-        <v>3.2949880357786</v>
+        <v>0.6483292259328235</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>2021</v>
       </c>
       <c r="C591" t="n">
-        <v>4.214449237111293</v>
+        <v>0.4979559636892833</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>2021</v>
       </c>
       <c r="C592" t="n">
-        <v>3.985766220899554</v>
+        <v>0.3747061839887142</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>2021</v>
       </c>
       <c r="C593" t="n">
-        <v>3.354726383507764</v>
+        <v>0.7675674019559184</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>2021</v>
       </c>
       <c r="C594" t="n">
-        <v>3.766345035699465</v>
+        <v>0.6771106284805202</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>2021</v>
       </c>
       <c r="C595" t="n">
-        <v>3.121523277928537</v>
+        <v>0.8233462371267681</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>2021</v>
       </c>
       <c r="C596" t="n">
-        <v>3.910757356895831</v>
+        <v>0.4494374488410234</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>2021</v>
       </c>
       <c r="C597" t="n">
-        <v>2.583471598747197</v>
+        <v>0.4434789786086569</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>2021</v>
       </c>
       <c r="C598" t="n">
-        <v>1.341078944451312</v>
+        <v>0.5138600131315587</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>2021</v>
       </c>
       <c r="C599" t="n">
-        <v>2.879410617468008</v>
+        <v>0.8135193172963266</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>2021</v>
       </c>
       <c r="C600" t="n">
-        <v>2.883981978913326</v>
+        <v>0.8058714310818252</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>2021</v>
       </c>
       <c r="C601" t="n">
-        <v>2.750600956091668</v>
+        <v>0.6030278739538029</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>2021</v>
       </c>
       <c r="C602" t="n">
-        <v>2.937847721024943</v>
+        <v>0.6535306242294807</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>2021</v>
       </c>
       <c r="C603" t="n">
-        <v>3.554828381397</v>
+        <v>0.6449850624504549</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>2021</v>
       </c>
       <c r="C604" t="n">
-        <v>3.2708585421211</v>
+        <v>0.7111118892317425</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>2021</v>
       </c>
       <c r="C605" t="n">
-        <v>3.051301571764811</v>
+        <v>0.4137327216549987</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>2021</v>
       </c>
       <c r="C606" t="n">
-        <v>2.430773052480117</v>
+        <v>0.1817568850071181</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>2021</v>
       </c>
       <c r="C607" t="n">
-        <v>3.638220850609617</v>
+        <v>0.6182530240582881</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>2021</v>
       </c>
       <c r="C608" t="n">
-        <v>4.043118264904684</v>
+        <v>0.4317389319694254</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>2021</v>
       </c>
       <c r="C609" t="n">
-        <v>2.774228568506374</v>
+        <v>0.5340607328253137</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>2021</v>
       </c>
       <c r="C610" t="n">
-        <v>2.484008031112014</v>
+        <v>0.656307953504157</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>2021</v>
       </c>
       <c r="C611" t="n">
-        <v>3.036605423090927</v>
+        <v>0.6358169319024547</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>2021</v>
       </c>
       <c r="C612" t="n">
-        <v>3.275405494842248</v>
+        <v>0.6906792822041594</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>2021</v>
       </c>
       <c r="C613" t="n">
-        <v>2.858331955808885</v>
+        <v>0.6833151333642695</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>2021</v>
       </c>
       <c r="C614" t="n">
-        <v>3.057267279292649</v>
+        <v>0.5495896884840994</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B615" t="n">
         <v>2021</v>
       </c>
       <c r="C615" t="n">
-        <v>4.019941664040518</v>
+        <v>0.3979603832986575</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>2021</v>
       </c>
       <c r="C616" t="n">
-        <v>2.659252591079638</v>
+        <v>0.7104920055675527</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>2021</v>
       </c>
       <c r="C617" t="n">
-        <v>2.389789207747751</v>
+        <v>0.7654301050826802</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B618" t="n">
         <v>2021</v>
       </c>
       <c r="C618" t="n">
-        <v>2.434558575189855</v>
+        <v>0.5951671270091269</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>2021</v>
       </c>
       <c r="C619" t="n">
-        <v>2.436065693665912</v>
+        <v>0.3295927363681312</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>2021</v>
       </c>
       <c r="C620" t="n">
-        <v>3.594658688743992</v>
+        <v>0.5754557425581651</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>2021</v>
       </c>
       <c r="C621" t="n">
-        <v>3.770433491930279</v>
+        <v>0.6127467939432419</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>2021</v>
       </c>
       <c r="C622" t="n">
-        <v>3.714276961030595</v>
+        <v>0.5134854334950292</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>2021</v>
       </c>
       <c r="C623" t="n">
-        <v>4.378047378346853</v>
+        <v>0.6733438297028965</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>2021</v>
       </c>
       <c r="C624" t="n">
-        <v>4.095004817358164</v>
+        <v>0.7981264780569322</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B625" t="n">
         <v>2021</v>
       </c>
       <c r="C625" t="n">
-        <v>3.541100955657698</v>
+        <v>0.4828144999469647</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>2021</v>
       </c>
       <c r="C626" t="n">
-        <v>3.655154681322652</v>
+        <v>0.4244630758432631</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B627" t="n">
         <v>2021</v>
       </c>
       <c r="C627" t="n">
-        <v>3.554305342267956</v>
+        <v>0.4200966800943665</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B628" t="n">
         <v>2021</v>
       </c>
       <c r="C628" t="n">
-        <v>3.695925994839926</v>
+        <v>0.3904195510948562</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>2021</v>
       </c>
       <c r="C629" t="n">
-        <v>2.384976063455377</v>
+        <v>0.7281420395218481</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>2021</v>
       </c>
       <c r="C630" t="n">
-        <v>3.508010871855867</v>
+        <v>0.78682852105648</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>2021</v>
       </c>
       <c r="C631" t="n">
-        <v>3.693191673279226</v>
+        <v>0.7358920383079666</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B632" t="n">
         <v>2021</v>
       </c>
       <c r="C632" t="n">
-        <v>3.932022023824489</v>
+        <v>0.5630078963911421</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B633" t="n">
         <v>2021</v>
       </c>
       <c r="C633" t="n">
-        <v>3.780368497145718</v>
+        <v>0.649525892498762</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>2021</v>
       </c>
       <c r="C634" t="n">
-        <v>3.62274896936274</v>
+        <v>0.6548788331114084</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B635" t="n">
         <v>2021</v>
       </c>
       <c r="C635" t="n">
-        <v>3.934497450623142</v>
+        <v>0.7654648483208004</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>2021</v>
       </c>
       <c r="C636" t="n">
-        <v>2.047816935045848</v>
+        <v>0.7112014280124012</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>2021</v>
       </c>
       <c r="C637" t="n">
-        <v>3.895969548259654</v>
+        <v>0.7787116801435719</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B638" t="n">
         <v>2021</v>
       </c>
       <c r="C638" t="n">
-        <v>4.297344307200828</v>
+        <v>0.3444494155938174</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>2021</v>
       </c>
       <c r="C639" t="n">
-        <v>3.845703982685854</v>
+        <v>0.6902240341982</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>2021</v>
       </c>
       <c r="C640" t="n">
-        <v>3.336553686790259</v>
+        <v>0.7341699383780789</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.8035448892754075</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.6390219896676554</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.6338990217755105</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.6828105070034984</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.3092239694610463</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.5932350680791179</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.7468692124904605</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.5748216315229113</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.6173826037123549</v>
       </c>
     </row>
   </sheetData>
